--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9972296472665597</v>
+        <v>0.9703253704915283</v>
       </c>
       <c r="E3">
-        <v>0.9972296472665597</v>
+        <v>0.9703253704915283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999999966647</v>
+        <v>0.9999999999957594</v>
       </c>
       <c r="E4">
-        <v>0.9999999999966647</v>
+        <v>0.9999999999957594</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.174055196727411E-05</v>
+        <v>1.234120095728359E-05</v>
       </c>
       <c r="E5">
-        <v>1.174055196727411E-05</v>
+        <v>1.234120095728359E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7.945594696589574E-11</v>
+        <v>1.459515254024199E-12</v>
       </c>
       <c r="E6">
-        <v>7.945594696589574E-11</v>
+        <v>1.459515254024199E-12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11.72749423980713</v>
+        <v>11.73240280151367</v>
       </c>
       <c r="G7">
         <v>0.5</v>
